--- a/Misc/Platooning Test Matrix.xlsx
+++ b/Misc/Platooning Test Matrix.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mjsja\Projects\SwissTraffic\Misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EE1A607-CE2F-4EC0-B1F2-D0E733935489}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04254EAE-E313-41EF-BA85-E409BAD5F6BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30840" yWindow="-120" windowWidth="30960" windowHeight="16920" xr2:uid="{3DF1AE4C-3421-4524-9A14-3E0B2D2C7BAA}"/>
+    <workbookView xWindow="-29190" yWindow="2190" windowWidth="25365" windowHeight="14310" xr2:uid="{3DF1AE4C-3421-4524-9A14-3E0B2D2C7BAA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -461,7 +461,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -547,6 +547,9 @@
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -867,8 +870,8 @@
   </sheetPr>
   <dimension ref="B2:Z66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="X69" sqref="X69"/>
+    <sheetView tabSelected="1" topLeftCell="B25" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="M67" sqref="M67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1213,7 +1216,9 @@
       </c>
     </row>
     <row r="31" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B31" s="3"/>
+      <c r="B31" s="34">
+        <v>2</v>
+      </c>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="N31" s="1">
@@ -1221,7 +1226,9 @@
       </c>
     </row>
     <row r="32" spans="2:23" x14ac:dyDescent="0.45">
-      <c r="B32" s="3"/>
+      <c r="B32" s="34">
+        <v>3</v>
+      </c>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="N32" s="1">
@@ -1229,7 +1236,9 @@
       </c>
     </row>
     <row r="33" spans="2:26" x14ac:dyDescent="0.45">
-      <c r="B33" s="3"/>
+      <c r="B33" s="34">
+        <v>4</v>
+      </c>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="N33" s="1">
@@ -1474,7 +1483,7 @@
         <v>0.2</v>
       </c>
       <c r="M43" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N43" s="9">
         <v>2</v>
@@ -1549,7 +1558,7 @@
         <v>0.2</v>
       </c>
       <c r="M44" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N44" s="13">
         <v>2</v>
@@ -1624,7 +1633,7 @@
         <v>0.2</v>
       </c>
       <c r="M45" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N45" s="13">
         <v>2</v>
@@ -1699,7 +1708,7 @@
         <v>0.2</v>
       </c>
       <c r="M46" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N46" s="13">
         <v>2</v>
@@ -1774,7 +1783,7 @@
         <v>0.2</v>
       </c>
       <c r="M47" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N47" s="13">
         <v>3</v>
@@ -1849,7 +1858,7 @@
         <v>0.2</v>
       </c>
       <c r="M48" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N48" s="13">
         <v>3</v>
@@ -1924,7 +1933,7 @@
         <v>0.2</v>
       </c>
       <c r="M49" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N49" s="13">
         <v>3</v>
@@ -1999,7 +2008,7 @@
         <v>0.2</v>
       </c>
       <c r="M50" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N50" s="13">
         <v>3</v>
@@ -2074,7 +2083,7 @@
         <v>0.2</v>
       </c>
       <c r="M51" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N51" s="13">
         <v>4</v>
@@ -2149,7 +2158,7 @@
         <v>0.2</v>
       </c>
       <c r="M52" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N52" s="13">
         <v>4</v>
@@ -2224,7 +2233,7 @@
         <v>0.2</v>
       </c>
       <c r="M53" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N53" s="13">
         <v>4</v>
@@ -2299,7 +2308,7 @@
         <v>0.2</v>
       </c>
       <c r="M54" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N54" s="16">
         <v>4</v>
@@ -2376,7 +2385,7 @@
         <v>0.4</v>
       </c>
       <c r="M55" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N55" s="13">
         <v>2</v>
@@ -2451,7 +2460,7 @@
         <v>0.4</v>
       </c>
       <c r="M56" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N56" s="13">
         <v>2</v>
@@ -2526,7 +2535,7 @@
         <v>0.4</v>
       </c>
       <c r="M57" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N57" s="13">
         <v>2</v>
@@ -2601,7 +2610,7 @@
         <v>0.4</v>
       </c>
       <c r="M58" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N58" s="13">
         <v>2</v>
@@ -2676,7 +2685,7 @@
         <v>0.4</v>
       </c>
       <c r="M59" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N59" s="13">
         <v>3</v>
@@ -2751,7 +2760,7 @@
         <v>0.4</v>
       </c>
       <c r="M60" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N60" s="13">
         <v>3</v>
@@ -2826,7 +2835,7 @@
         <v>0.4</v>
       </c>
       <c r="M61" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N61" s="13">
         <v>3</v>
@@ -2901,7 +2910,7 @@
         <v>0.4</v>
       </c>
       <c r="M62" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N62" s="13">
         <v>3</v>
@@ -2976,7 +2985,7 @@
         <v>0.4</v>
       </c>
       <c r="M63" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N63" s="13">
         <v>4</v>
@@ -3051,7 +3060,7 @@
         <v>0.4</v>
       </c>
       <c r="M64" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N64" s="13">
         <v>4</v>
@@ -3126,7 +3135,7 @@
         <v>0.4</v>
       </c>
       <c r="M65" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N65" s="13">
         <v>4</v>
@@ -3201,7 +3210,7 @@
         <v>0.4</v>
       </c>
       <c r="M66" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N66" s="16">
         <v>4</v>

--- a/Misc/Platooning Test Matrix.xlsx
+++ b/Misc/Platooning Test Matrix.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mjsja\Projects\SwissTraffic\Misc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04254EAE-E313-41EF-BA85-E409BAD5F6BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE8C7DBB-BBB9-4D70-BA1D-E7775E6C317C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-29190" yWindow="2190" windowWidth="25365" windowHeight="14310" xr2:uid="{3DF1AE4C-3421-4524-9A14-3E0B2D2C7BAA}"/>
+    <workbookView xWindow="-26760" yWindow="1335" windowWidth="24420" windowHeight="13770" xr2:uid="{3DF1AE4C-3421-4524-9A14-3E0B2D2C7BAA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,10 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="66">
-  <si>
-    <t>AGB 2002/005</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="67">
   <si>
     <t>Box Girder</t>
   </si>
@@ -231,6 +228,12 @@
   </si>
   <si>
     <t>Forty Percent</t>
+  </si>
+  <si>
+    <t>Platooning</t>
+  </si>
+  <si>
+    <t>0.35 percentile by weight is the cutt-off for candidates in platooning, and 0.02 is the cut-off for percentage of trucks to be candidates</t>
   </si>
 </sst>
 </file>
@@ -870,9 +873,7 @@
   </sheetPr>
   <dimension ref="B2:Z66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B25" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="M67" sqref="M67"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -890,9 +891,11 @@
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="3"/>
+        <v>65</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>66</v>
+      </c>
       <c r="D2" s="3"/>
       <c r="H2" s="1"/>
     </row>
@@ -901,24 +904,24 @@
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B4" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C5" s="2">
         <v>500000</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.45">
@@ -927,35 +930,35 @@
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B7" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H7" s="1"/>
       <c r="K7" s="2"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E8" s="1">
         <v>0.12</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H8" s="1"/>
       <c r="K8" s="2"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B9" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
@@ -963,7 +966,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H9" s="1"/>
       <c r="K9" s="2"/>
@@ -974,56 +977,56 @@
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B11" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H11" s="3"/>
       <c r="K11" s="2"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K12" s="2"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K13" s="2"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H14" s="1"/>
       <c r="K14" s="2"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B15" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H15" s="1"/>
       <c r="K15" s="2"/>
@@ -1035,7 +1038,7 @@
     </row>
     <row r="17" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B17" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -1043,7 +1046,7 @@
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
@@ -1063,15 +1066,15 @@
     </row>
     <row r="18" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B19" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
@@ -1079,12 +1082,12 @@
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
       <c r="H19" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B21" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
@@ -1093,13 +1096,13 @@
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
       <c r="I21" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J21" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="J21" s="4" t="s">
+      <c r="K21" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="K21" s="4" t="s">
-        <v>20</v>
       </c>
       <c r="L21" s="5"/>
       <c r="M21" s="5"/>
@@ -1113,7 +1116,7 @@
     </row>
     <row r="22" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B22" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" s="1">
         <v>0</v>
@@ -1127,7 +1130,7 @@
     </row>
     <row r="23" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B23" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
@@ -1136,13 +1139,13 @@
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
       <c r="I23" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="J23" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="J23" s="23" t="s">
+      <c r="K23" s="23" t="s">
         <v>34</v>
-      </c>
-      <c r="K23" s="23" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="24" spans="2:23" x14ac:dyDescent="0.45">
@@ -1150,20 +1153,20 @@
     </row>
     <row r="25" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B25" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="L25" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M25" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
@@ -1176,7 +1179,7 @@
     </row>
     <row r="27" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
@@ -1189,7 +1192,7 @@
     </row>
     <row r="28" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B28" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
@@ -1207,12 +1210,12 @@
     </row>
     <row r="30" spans="2:23" x14ac:dyDescent="0.45">
       <c r="B30" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="N30" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="2:23" x14ac:dyDescent="0.45">
@@ -1251,12 +1254,12 @@
     </row>
     <row r="35" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B35" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="O35" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36" spans="2:26" x14ac:dyDescent="0.45">
@@ -1296,102 +1299,102 @@
     </row>
     <row r="41" spans="2:26" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B41" s="24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C41" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E41" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="F41" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="G41" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="H41" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="I41" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="J41" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="K41" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="L41" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="M41" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="N41" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="O41" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="P41" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="D41" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="E41" s="18" t="s">
+      <c r="Q41" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="R41" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="F41" s="18" t="s">
+      <c r="S41" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="G41" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="H41" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="I41" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="J41" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="K41" s="18" t="s">
+      <c r="T41" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="U41" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="V41" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="W41" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="X41" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="L41" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="M41" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="N41" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="O41" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="P41" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q41" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="R41" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="S41" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="T41" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="U41" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="V41" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="W41" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="X41" s="18" t="s">
+      <c r="Y41" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="Y41" s="18" t="s">
+      <c r="Z41" s="19" t="s">
         <v>22</v>
-      </c>
-      <c r="Z41" s="19" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="42" spans="2:26" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B42" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C42" s="7">
         <v>500000</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E42" s="8">
         <v>0.12</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G42" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H42" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I42" s="8">
         <v>0</v>
@@ -1418,7 +1421,7 @@
         <v>500</v>
       </c>
       <c r="Q42" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R42" s="8">
         <v>1</v>
@@ -1439,7 +1442,7 @@
         <v>0</v>
       </c>
       <c r="X42" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y42" s="8">
         <v>1</v>
@@ -1450,25 +1453,25 @@
     </row>
     <row r="43" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B43" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C43" s="7">
         <v>500000</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E43" s="31">
         <v>0.12</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G43" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H43" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I43" s="9">
         <v>0</v>
@@ -1495,7 +1498,7 @@
         <v>500</v>
       </c>
       <c r="Q43" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R43" s="9">
         <v>1</v>
@@ -1516,7 +1519,7 @@
         <v>0</v>
       </c>
       <c r="X43" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y43" s="9">
         <v>1</v>
@@ -1531,19 +1534,19 @@
         <v>500000</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E44" s="26">
         <v>0.12</v>
       </c>
       <c r="F44" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G44" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H44" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I44" s="13">
         <v>0</v>
@@ -1570,7 +1573,7 @@
         <v>500</v>
       </c>
       <c r="Q44" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R44" s="13">
         <v>1</v>
@@ -1591,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="X44" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y44" s="13">
         <v>1</v>
@@ -1606,19 +1609,19 @@
         <v>500000</v>
       </c>
       <c r="D45" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E45" s="26">
         <v>0.12</v>
       </c>
       <c r="F45" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G45" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H45" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I45" s="13">
         <v>0</v>
@@ -1645,7 +1648,7 @@
         <v>500</v>
       </c>
       <c r="Q45" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R45" s="13">
         <v>1</v>
@@ -1666,7 +1669,7 @@
         <v>0</v>
       </c>
       <c r="X45" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y45" s="13">
         <v>1</v>
@@ -1681,19 +1684,19 @@
         <v>500000</v>
       </c>
       <c r="D46" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E46" s="26">
         <v>0.12</v>
       </c>
       <c r="F46" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G46" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H46" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I46" s="13">
         <v>0</v>
@@ -1720,7 +1723,7 @@
         <v>500</v>
       </c>
       <c r="Q46" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R46" s="13">
         <v>1</v>
@@ -1741,7 +1744,7 @@
         <v>0</v>
       </c>
       <c r="X46" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y46" s="13">
         <v>1</v>
@@ -1756,19 +1759,19 @@
         <v>500000</v>
       </c>
       <c r="D47" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E47" s="26">
         <v>0.12</v>
       </c>
       <c r="F47" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G47" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H47" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I47" s="13">
         <v>0</v>
@@ -1795,7 +1798,7 @@
         <v>500</v>
       </c>
       <c r="Q47" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R47" s="13">
         <v>1</v>
@@ -1816,7 +1819,7 @@
         <v>0</v>
       </c>
       <c r="X47" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y47" s="13">
         <v>1</v>
@@ -1831,19 +1834,19 @@
         <v>500000</v>
       </c>
       <c r="D48" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E48" s="26">
         <v>0.12</v>
       </c>
       <c r="F48" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G48" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H48" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I48" s="13">
         <v>0</v>
@@ -1870,7 +1873,7 @@
         <v>500</v>
       </c>
       <c r="Q48" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R48" s="13">
         <v>1</v>
@@ -1891,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="X48" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y48" s="13">
         <v>1</v>
@@ -1906,19 +1909,19 @@
         <v>500000</v>
       </c>
       <c r="D49" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E49" s="26">
         <v>0.12</v>
       </c>
       <c r="F49" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G49" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H49" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I49" s="13">
         <v>0</v>
@@ -1945,7 +1948,7 @@
         <v>500</v>
       </c>
       <c r="Q49" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R49" s="13">
         <v>1</v>
@@ -1966,7 +1969,7 @@
         <v>0</v>
       </c>
       <c r="X49" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y49" s="13">
         <v>1</v>
@@ -1981,19 +1984,19 @@
         <v>500000</v>
       </c>
       <c r="D50" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E50" s="26">
         <v>0.12</v>
       </c>
       <c r="F50" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G50" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H50" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I50" s="13">
         <v>0</v>
@@ -2020,7 +2023,7 @@
         <v>500</v>
       </c>
       <c r="Q50" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R50" s="13">
         <v>1</v>
@@ -2041,7 +2044,7 @@
         <v>0</v>
       </c>
       <c r="X50" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y50" s="13">
         <v>1</v>
@@ -2056,19 +2059,19 @@
         <v>500000</v>
       </c>
       <c r="D51" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E51" s="26">
         <v>0.12</v>
       </c>
       <c r="F51" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G51" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H51" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I51" s="13">
         <v>0</v>
@@ -2095,7 +2098,7 @@
         <v>500</v>
       </c>
       <c r="Q51" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R51" s="13">
         <v>1</v>
@@ -2116,7 +2119,7 @@
         <v>0</v>
       </c>
       <c r="X51" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y51" s="13">
         <v>1</v>
@@ -2131,19 +2134,19 @@
         <v>500000</v>
       </c>
       <c r="D52" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E52" s="26">
         <v>0.12</v>
       </c>
       <c r="F52" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G52" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H52" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I52" s="13">
         <v>0</v>
@@ -2170,7 +2173,7 @@
         <v>500</v>
       </c>
       <c r="Q52" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R52" s="13">
         <v>1</v>
@@ -2191,7 +2194,7 @@
         <v>0</v>
       </c>
       <c r="X52" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y52" s="13">
         <v>1</v>
@@ -2206,19 +2209,19 @@
         <v>500000</v>
       </c>
       <c r="D53" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E53" s="26">
         <v>0.12</v>
       </c>
       <c r="F53" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G53" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H53" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I53" s="13">
         <v>0</v>
@@ -2245,7 +2248,7 @@
         <v>500</v>
       </c>
       <c r="Q53" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R53" s="13">
         <v>1</v>
@@ -2266,7 +2269,7 @@
         <v>0</v>
       </c>
       <c r="X53" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y53" s="13">
         <v>1</v>
@@ -2281,19 +2284,19 @@
         <v>500000</v>
       </c>
       <c r="D54" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E54" s="29">
         <v>0.12</v>
       </c>
       <c r="F54" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G54" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H54" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I54" s="16">
         <v>0</v>
@@ -2320,7 +2323,7 @@
         <v>500</v>
       </c>
       <c r="Q54" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R54" s="16">
         <v>1</v>
@@ -2341,7 +2344,7 @@
         <v>0</v>
       </c>
       <c r="X54" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y54" s="16">
         <v>1</v>
@@ -2352,25 +2355,25 @@
     </row>
     <row r="55" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B55" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C55" s="11">
         <v>500000</v>
       </c>
       <c r="D55" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E55" s="26">
         <v>0.12</v>
       </c>
       <c r="F55" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G55" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H55" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I55" s="13">
         <v>0</v>
@@ -2397,7 +2400,7 @@
         <v>500</v>
       </c>
       <c r="Q55" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R55" s="13">
         <v>1</v>
@@ -2418,7 +2421,7 @@
         <v>0</v>
       </c>
       <c r="X55" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y55" s="13">
         <v>1</v>
@@ -2433,19 +2436,19 @@
         <v>500000</v>
       </c>
       <c r="D56" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E56" s="26">
         <v>0.12</v>
       </c>
       <c r="F56" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G56" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H56" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I56" s="13">
         <v>0</v>
@@ -2472,7 +2475,7 @@
         <v>500</v>
       </c>
       <c r="Q56" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R56" s="13">
         <v>1</v>
@@ -2493,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="X56" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y56" s="13">
         <v>1</v>
@@ -2508,19 +2511,19 @@
         <v>500000</v>
       </c>
       <c r="D57" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E57" s="26">
         <v>0.12</v>
       </c>
       <c r="F57" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G57" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H57" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I57" s="13">
         <v>0</v>
@@ -2547,7 +2550,7 @@
         <v>500</v>
       </c>
       <c r="Q57" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R57" s="13">
         <v>1</v>
@@ -2568,7 +2571,7 @@
         <v>0</v>
       </c>
       <c r="X57" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y57" s="13">
         <v>1</v>
@@ -2583,19 +2586,19 @@
         <v>500000</v>
       </c>
       <c r="D58" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E58" s="26">
         <v>0.12</v>
       </c>
       <c r="F58" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G58" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H58" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I58" s="13">
         <v>0</v>
@@ -2622,7 +2625,7 @@
         <v>500</v>
       </c>
       <c r="Q58" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R58" s="13">
         <v>1</v>
@@ -2643,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="X58" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y58" s="13">
         <v>1</v>
@@ -2658,19 +2661,19 @@
         <v>500000</v>
       </c>
       <c r="D59" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E59" s="26">
         <v>0.12</v>
       </c>
       <c r="F59" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G59" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H59" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I59" s="13">
         <v>0</v>
@@ -2697,7 +2700,7 @@
         <v>500</v>
       </c>
       <c r="Q59" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R59" s="13">
         <v>1</v>
@@ -2718,7 +2721,7 @@
         <v>0</v>
       </c>
       <c r="X59" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y59" s="13">
         <v>1</v>
@@ -2733,19 +2736,19 @@
         <v>500000</v>
       </c>
       <c r="D60" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E60" s="26">
         <v>0.12</v>
       </c>
       <c r="F60" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G60" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H60" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I60" s="13">
         <v>0</v>
@@ -2772,7 +2775,7 @@
         <v>500</v>
       </c>
       <c r="Q60" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R60" s="13">
         <v>1</v>
@@ -2793,7 +2796,7 @@
         <v>0</v>
       </c>
       <c r="X60" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y60" s="13">
         <v>1</v>
@@ -2808,19 +2811,19 @@
         <v>500000</v>
       </c>
       <c r="D61" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E61" s="26">
         <v>0.12</v>
       </c>
       <c r="F61" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G61" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H61" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I61" s="13">
         <v>0</v>
@@ -2847,7 +2850,7 @@
         <v>500</v>
       </c>
       <c r="Q61" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R61" s="13">
         <v>1</v>
@@ -2868,7 +2871,7 @@
         <v>0</v>
       </c>
       <c r="X61" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y61" s="13">
         <v>1</v>
@@ -2883,19 +2886,19 @@
         <v>500000</v>
       </c>
       <c r="D62" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E62" s="26">
         <v>0.12</v>
       </c>
       <c r="F62" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G62" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H62" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I62" s="13">
         <v>0</v>
@@ -2922,7 +2925,7 @@
         <v>500</v>
       </c>
       <c r="Q62" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R62" s="13">
         <v>1</v>
@@ -2943,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="X62" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y62" s="13">
         <v>1</v>
@@ -2958,19 +2961,19 @@
         <v>500000</v>
       </c>
       <c r="D63" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E63" s="26">
         <v>0.12</v>
       </c>
       <c r="F63" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G63" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H63" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I63" s="13">
         <v>0</v>
@@ -2997,7 +3000,7 @@
         <v>500</v>
       </c>
       <c r="Q63" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R63" s="13">
         <v>1</v>
@@ -3018,7 +3021,7 @@
         <v>0</v>
       </c>
       <c r="X63" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y63" s="13">
         <v>1</v>
@@ -3033,19 +3036,19 @@
         <v>500000</v>
       </c>
       <c r="D64" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E64" s="26">
         <v>0.12</v>
       </c>
       <c r="F64" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G64" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H64" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I64" s="13">
         <v>0</v>
@@ -3072,7 +3075,7 @@
         <v>500</v>
       </c>
       <c r="Q64" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R64" s="13">
         <v>1</v>
@@ -3093,7 +3096,7 @@
         <v>0</v>
       </c>
       <c r="X64" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y64" s="13">
         <v>1</v>
@@ -3108,19 +3111,19 @@
         <v>500000</v>
       </c>
       <c r="D65" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E65" s="26">
         <v>0.12</v>
       </c>
       <c r="F65" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G65" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H65" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I65" s="13">
         <v>0</v>
@@ -3147,7 +3150,7 @@
         <v>500</v>
       </c>
       <c r="Q65" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R65" s="13">
         <v>1</v>
@@ -3168,7 +3171,7 @@
         <v>0</v>
       </c>
       <c r="X65" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y65" s="13">
         <v>1</v>
@@ -3183,19 +3186,19 @@
         <v>500000</v>
       </c>
       <c r="D66" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E66" s="29">
         <v>0.12</v>
       </c>
       <c r="F66" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G66" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H66" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I66" s="16">
         <v>0</v>
@@ -3222,7 +3225,7 @@
         <v>500</v>
       </c>
       <c r="Q66" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R66" s="16">
         <v>1</v>
@@ -3243,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="X66" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Y66" s="16">
         <v>1</v>
